--- a/linea_de_comando/linea de comandos.xlsx
+++ b/linea_de_comando/linea de comandos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>FUNCIONALIDAD</t>
   </si>
@@ -137,12 +137,97 @@
   <si>
     <t>terminales de linea de comando</t>
   </si>
+  <si>
+    <t>crear ambiente virtual</t>
+  </si>
+  <si>
+    <t>py -m venv &lt;nombre_ambiente&gt;</t>
+  </si>
+  <si>
+    <t>python3 -m venv &lt;nombre_ambiente&gt;</t>
+  </si>
+  <si>
+    <t>source &lt;nombre_ambiente&gt;/bin/activate</t>
+  </si>
+  <si>
+    <t>iniciar repositorio</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>activar ambiente virtual paso 1</t>
+  </si>
+  <si>
+    <t>activar ambiente virtual paso 2</t>
+  </si>
+  <si>
+    <t>ejecutar como administrador:
+Set-ExecutionPolicy Unrestricted -Force</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>.\venv\Scripts\activate</t>
+  </si>
+  <si>
+    <t>salir de entorno virtual</t>
+  </si>
+  <si>
+    <t>deactivate</t>
+  </si>
+  <si>
+    <t>alias para activar ambiente</t>
+  </si>
+  <si>
+    <t>New-Alias -name avenv .\venv\Scripts\activate</t>
+  </si>
+  <si>
+    <t>alias avenv="source &lt;nombre_ambiente&gt;/bin/activate"</t>
+  </si>
+  <si>
+    <t>instalar dependencias dentro del ambiente</t>
+  </si>
+  <si>
+    <t>revisar dependencias instaladas</t>
+  </si>
+  <si>
+    <t>pip freeze</t>
+  </si>
+  <si>
+    <t>ejemplo instalar dependencia</t>
+  </si>
+  <si>
+    <t>pip install pandas</t>
+  </si>
+  <si>
+    <t>compartir dependencias con otras personas</t>
+  </si>
+  <si>
+    <t>crear archivo con dependencias</t>
+  </si>
+  <si>
+    <t>pip freeze &gt; requirements.txt</t>
+  </si>
+  <si>
+    <t>cat .\requirements.txt</t>
+  </si>
+  <si>
+    <t>revisar archivo creado</t>
+  </si>
+  <si>
+    <t>el desarrollador debera ejecutar:</t>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +239,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +287,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,18 +595,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,6 +822,133 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/linea_de_comando/linea de comandos.xlsx
+++ b/linea_de_comando/linea de comandos.xlsx
@@ -284,13 +284,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,11 +611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -831,7 +831,7 @@
       <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
     </row>

--- a/linea_de_comando/linea de comandos.xlsx
+++ b/linea_de_comando/linea de comandos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>FUNCIONALIDAD</t>
   </si>
@@ -222,12 +222,36 @@
   <si>
     <t>pip install -r requirements.txt</t>
   </si>
+  <si>
+    <t>instalar cualquier modulo en python</t>
+  </si>
+  <si>
+    <t>instalar modulo</t>
+  </si>
+  <si>
+    <t>instalar y ejecutar jupyter notebook</t>
+  </si>
+  <si>
+    <t>py -m pip install &lt;nombre_modulo&gt;</t>
+  </si>
+  <si>
+    <t>py -m pip install jupyter</t>
+  </si>
+  <si>
+    <t>py -m jupyter notebook</t>
+  </si>
+  <si>
+    <t>instalar jupyter</t>
+  </si>
+  <si>
+    <t>ejecutar jupyter notebook</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +271,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,6 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +982,40 @@
         <v>65</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
